--- a/excel_root/sample_ko.xlsx
+++ b/excel_root/sample_ko.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="17115" windowHeight="12045"/>
@@ -11,7 +11,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -316,12 +319,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -329,14 +332,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -344,7 +347,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -469,10 +472,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1181,8 +1189,28 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="toArray"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1256,6 +1284,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1290,6 +1319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1465,14 +1495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
@@ -1482,7 +1512,7 @@
     <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="13" t="s">
         <v>0</v>
@@ -1492,7 +1522,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9"/>
       <c r="C3" s="8" t="s">
         <v>28</v>
@@ -1503,7 +1533,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -1517,7 +1547,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
         <v>3</v>
@@ -1531,7 +1561,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -1545,7 +1575,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -1559,7 +1589,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -1573,7 +1603,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="13" t="s">
         <v>8</v>
@@ -1583,7 +1613,7 @@
       <c r="E11" s="14"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>25</v>
@@ -1596,7 +1626,7 @@
       </c>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>52</v>
       </c>
@@ -1614,7 +1644,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>48</v>
@@ -1632,7 +1662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
         <v>49</v>
@@ -1650,7 +1680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
         <v>50</v>
@@ -1668,7 +1698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
         <v>72</v>
@@ -1686,7 +1716,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1694,7 +1724,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="13" t="s">
         <v>20</v>
@@ -1704,7 +1734,7 @@
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -1735,7 +1765,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1">
         <v>100</v>
@@ -1751,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1">
         <v>500</v>
@@ -1767,7 +1797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1">
         <v>1000</v>
@@ -1783,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1">
         <v>1500</v>
@@ -1795,7 +1825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1">
         <v>2000</v>
@@ -1807,7 +1837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1">
         <v>2500</v>
@@ -1819,10 +1849,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="13" t="s">
         <v>34</v>
       </c>
@@ -1831,7 +1861,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1876,7 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -1866,7 +1896,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B32" s="6" t="s">
         <v>43</v>
       </c>
@@ -1883,7 +1913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B33" s="6" t="s">
         <v>45</v>
       </c>
@@ -1900,7 +1930,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B34" s="6" t="s">
         <v>46</v>
       </c>
@@ -1917,7 +1947,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
@@ -1934,7 +1964,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1"/>
       <c r="B37" s="13" t="s">
         <v>55</v>
@@ -1944,7 +1974,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -1960,7 +1990,7 @@
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
@@ -1976,7 +2006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="6" t="s">
         <v>43</v>
@@ -1990,7 +2020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1"/>
       <c r="B41" s="6" t="s">
         <v>46</v>
@@ -2004,7 +2034,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="6" t="s">
         <v>47</v>
@@ -2018,7 +2048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2026,7 +2056,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1">
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>62</v>
       </c>
@@ -2037,7 +2067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>64</v>
       </c>
@@ -2045,7 +2075,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>66</v>
       </c>
@@ -2053,7 +2083,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B48" s="3" t="s">
         <v>68</v>
       </c>
@@ -2061,11 +2091,29 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="1" customFormat="1">
+    <row r="49" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C49" s="7"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H51" t="str">
+        <f>[1]!toArray(B47:C47)</f>
+        <v>[tobby,michael,cory]</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F52" t="e">
+        <f>to</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E53" t="e">
+        <f ca="1">toarray(B49)</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2087,12 +2135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2100,12 +2148,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
